--- a/server/user.xlsx
+++ b/server/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAAProject-KRISH\flip5\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_KRISH\Project-Flip5\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF891A-B003-42A7-9825-906A261B1370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E16E32-ADDB-4B07-81AF-638E2A956E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="3672" windowWidth="17280" windowHeight="9960" xr2:uid="{775E2D08-216B-49AD-9D7A-CD2BECE3E9BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{775E2D08-216B-49AD-9D7A-CD2BECE3E9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Sam</t>
+  </si>
+  <si>
+    <t>ktled@gmail.com</t>
+  </si>
+  <si>
+    <t>kt_LED</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680B40D-1D16-491D-B4B6-98EF69FCDD56}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,9 +442,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BB298F18-DB92-444D-8F78-2D13CA137C9E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6AFAA4AD-236C-4501-8B64-C95FA596029E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
